--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Mrc1-Ptprc.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Mrc1-Ptprc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.295779447977943</v>
+        <v>0.7871260000000001</v>
       </c>
       <c r="H2">
-        <v>0.295779447977943</v>
+        <v>2.361378</v>
       </c>
       <c r="I2">
-        <v>0.0008454282120720391</v>
+        <v>0.002226851099221957</v>
       </c>
       <c r="J2">
-        <v>0.0008454282120720391</v>
+        <v>0.002226851099221957</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.26410876202681</v>
+        <v>0.7744373333333333</v>
       </c>
       <c r="N2">
-        <v>0.26410876202681</v>
+        <v>2.323312</v>
       </c>
       <c r="O2">
-        <v>0.0007084664793791137</v>
+        <v>0.001996953570362765</v>
       </c>
       <c r="P2">
-        <v>0.0007084664793791137</v>
+        <v>0.001996953570362765</v>
       </c>
       <c r="Q2">
-        <v>0.07811794383842777</v>
+        <v>0.6095797604373334</v>
       </c>
       <c r="R2">
-        <v>0.07811794383842777</v>
+        <v>5.486217843936001</v>
       </c>
       <c r="S2">
-        <v>5.989575489744563E-07</v>
+        <v>4.446918253257535E-06</v>
       </c>
       <c r="T2">
-        <v>5.989575489744563E-07</v>
+        <v>4.446918253257535E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.295779447977943</v>
+        <v>0.7871260000000001</v>
       </c>
       <c r="H3">
-        <v>0.295779447977943</v>
+        <v>2.361378</v>
       </c>
       <c r="I3">
-        <v>0.0008454282120720391</v>
+        <v>0.002226851099221957</v>
       </c>
       <c r="J3">
-        <v>0.0008454282120720391</v>
+        <v>0.002226851099221957</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>126.773838160473</v>
+        <v>0.2864023333333334</v>
       </c>
       <c r="N3">
-        <v>126.773838160473</v>
+        <v>0.8592070000000001</v>
       </c>
       <c r="O3">
-        <v>0.3400682889491209</v>
+        <v>0.0007385131598040558</v>
       </c>
       <c r="P3">
-        <v>0.3400682889491209</v>
+        <v>0.0007385131598040558</v>
       </c>
       <c r="Q3">
-        <v>37.49709586914979</v>
+        <v>0.2254347230273334</v>
       </c>
       <c r="R3">
-        <v>37.49709586914979</v>
+        <v>2.028912507246</v>
       </c>
       <c r="S3">
-        <v>0.0002875033255086529</v>
+        <v>1.644558841699543E-06</v>
       </c>
       <c r="T3">
-        <v>0.0002875033255086529</v>
+        <v>1.644558841699542E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.295779447977943</v>
+        <v>0.7871260000000001</v>
       </c>
       <c r="H4">
-        <v>0.295779447977943</v>
+        <v>2.361378</v>
       </c>
       <c r="I4">
-        <v>0.0008454282120720391</v>
+        <v>0.002226851099221957</v>
       </c>
       <c r="J4">
-        <v>0.0008454282120720391</v>
+        <v>0.002226851099221957</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>245.628914213803</v>
+        <v>127.3845316666667</v>
       </c>
       <c r="N4">
-        <v>245.628914213803</v>
+        <v>382.153595</v>
       </c>
       <c r="O4">
-        <v>0.6588946566986762</v>
+        <v>0.3284720200998472</v>
       </c>
       <c r="P4">
-        <v>0.6588946566986762</v>
+        <v>0.3284720200998472</v>
       </c>
       <c r="Q4">
-        <v>72.65198465358016</v>
+        <v>100.2676768726567</v>
       </c>
       <c r="R4">
-        <v>72.65198465358016</v>
+        <v>902.40909185391</v>
       </c>
       <c r="S4">
-        <v>0.0005570481315565818</v>
+        <v>0.0007314582790230015</v>
       </c>
       <c r="T4">
-        <v>0.0005570481315565818</v>
+        <v>0.0007314582790230014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.295779447977943</v>
+        <v>0.7871260000000001</v>
       </c>
       <c r="H5">
-        <v>0.295779447977943</v>
+        <v>2.361378</v>
       </c>
       <c r="I5">
-        <v>0.0008454282120720391</v>
+        <v>0.002226851099221957</v>
       </c>
       <c r="J5">
-        <v>0.0008454282120720391</v>
+        <v>0.002226851099221957</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.122494061235655</v>
+        <v>259.1857756666666</v>
       </c>
       <c r="N5">
-        <v>0.122494061235655</v>
+        <v>777.557327</v>
       </c>
       <c r="O5">
-        <v>0.0003285878728236385</v>
+        <v>0.668332914526494</v>
       </c>
       <c r="P5">
-        <v>0.0003285878728236385</v>
+        <v>0.6683329145264941</v>
       </c>
       <c r="Q5">
-        <v>0.03623122581285838</v>
+        <v>204.0118628574007</v>
       </c>
       <c r="R5">
-        <v>0.03623122581285838</v>
+        <v>1836.106765716606</v>
       </c>
       <c r="S5">
-        <v>2.777974578298433E-07</v>
+        <v>0.001488277885359538</v>
       </c>
       <c r="T5">
-        <v>2.777974578298433E-07</v>
+        <v>0.001488277885359538</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.219080550170216</v>
+        <v>0.7871260000000001</v>
       </c>
       <c r="H6">
-        <v>0.219080550170216</v>
+        <v>2.361378</v>
       </c>
       <c r="I6">
-        <v>0.0006261992815808368</v>
+        <v>0.002226851099221957</v>
       </c>
       <c r="J6">
-        <v>0.0006261992815808368</v>
+        <v>0.002226851099221957</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.26410876202681</v>
+        <v>0.1782366666666667</v>
       </c>
       <c r="N6">
-        <v>0.26410876202681</v>
+        <v>0.53471</v>
       </c>
       <c r="O6">
-        <v>0.0007084664793791137</v>
+        <v>0.0004595986434919951</v>
       </c>
       <c r="P6">
-        <v>0.0007084664793791137</v>
+        <v>0.0004595986434919951</v>
       </c>
       <c r="Q6">
-        <v>0.05786109288960818</v>
+        <v>0.1402947144866667</v>
       </c>
       <c r="R6">
-        <v>0.05786109288960818</v>
+        <v>1.26265243038</v>
       </c>
       <c r="S6">
-        <v>4.436412004113057E-07</v>
+        <v>1.02345774446107E-06</v>
       </c>
       <c r="T6">
-        <v>4.436412004113057E-07</v>
+        <v>1.02345774446107E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.219080550170216</v>
+        <v>0.2407733333333333</v>
       </c>
       <c r="H7">
-        <v>0.219080550170216</v>
+        <v>0.72232</v>
       </c>
       <c r="I7">
-        <v>0.0006261992815808368</v>
+        <v>0.0006811696754987993</v>
       </c>
       <c r="J7">
-        <v>0.0006261992815808368</v>
+        <v>0.0006811696754987993</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>126.773838160473</v>
+        <v>0.7744373333333333</v>
       </c>
       <c r="N7">
-        <v>126.773838160473</v>
+        <v>2.323312</v>
       </c>
       <c r="O7">
-        <v>0.3400682889491209</v>
+        <v>0.001996953570362765</v>
       </c>
       <c r="P7">
-        <v>0.3400682889491209</v>
+        <v>0.001996953570362765</v>
       </c>
       <c r="Q7">
-        <v>27.77368221138635</v>
+        <v>0.1864638582044444</v>
       </c>
       <c r="R7">
-        <v>27.77368221138635</v>
+        <v>1.67817472384</v>
       </c>
       <c r="S7">
-        <v>0.0002129505182283639</v>
+        <v>1.360264215510173E-06</v>
       </c>
       <c r="T7">
-        <v>0.0002129505182283639</v>
+        <v>1.360264215510173E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.219080550170216</v>
+        <v>0.2407733333333333</v>
       </c>
       <c r="H8">
-        <v>0.219080550170216</v>
+        <v>0.72232</v>
       </c>
       <c r="I8">
-        <v>0.0006261992815808368</v>
+        <v>0.0006811696754987993</v>
       </c>
       <c r="J8">
-        <v>0.0006261992815808368</v>
+        <v>0.0006811696754987993</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>245.628914213803</v>
+        <v>0.2864023333333334</v>
       </c>
       <c r="N8">
-        <v>245.628914213803</v>
+        <v>0.8592070000000001</v>
       </c>
       <c r="O8">
-        <v>0.6588946566986762</v>
+        <v>0.0007385131598040558</v>
       </c>
       <c r="P8">
-        <v>0.6588946566986762</v>
+        <v>0.0007385131598040558</v>
       </c>
       <c r="Q8">
-        <v>53.81251766367275</v>
+        <v>0.06895804447111112</v>
       </c>
       <c r="R8">
-        <v>53.81251766367275</v>
+        <v>0.62062240024</v>
       </c>
       <c r="S8">
-        <v>0.0004125993606621632</v>
+        <v>5.030527694153216E-07</v>
       </c>
       <c r="T8">
-        <v>0.0004125993606621632</v>
+        <v>5.030527694153216E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.219080550170216</v>
+        <v>0.2407733333333333</v>
       </c>
       <c r="H9">
-        <v>0.219080550170216</v>
+        <v>0.72232</v>
       </c>
       <c r="I9">
-        <v>0.0006261992815808368</v>
+        <v>0.0006811696754987993</v>
       </c>
       <c r="J9">
-        <v>0.0006261992815808368</v>
+        <v>0.0006811696754987993</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.122494061235655</v>
+        <v>127.3845316666667</v>
       </c>
       <c r="N9">
-        <v>0.122494061235655</v>
+        <v>382.153595</v>
       </c>
       <c r="O9">
-        <v>0.0003285878728236385</v>
+        <v>0.3284720200998472</v>
       </c>
       <c r="P9">
-        <v>0.0003285878728236385</v>
+        <v>0.3284720200998472</v>
       </c>
       <c r="Q9">
-        <v>0.02683606632809142</v>
+        <v>30.67079830448888</v>
       </c>
       <c r="R9">
-        <v>0.02683606632809142</v>
+        <v>276.0371847404</v>
       </c>
       <c r="S9">
-        <v>2.057614898983378E-07</v>
+        <v>0.000223745179341848</v>
       </c>
       <c r="T9">
-        <v>2.057614898983378E-07</v>
+        <v>0.000223745179341848</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>184.214808871382</v>
+        <v>0.2407733333333333</v>
       </c>
       <c r="H10">
-        <v>184.214808871382</v>
+        <v>0.72232</v>
       </c>
       <c r="I10">
-        <v>0.5265423191706641</v>
+        <v>0.0006811696754987993</v>
       </c>
       <c r="J10">
-        <v>0.5265423191706641</v>
+        <v>0.0006811696754987993</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.26410876202681</v>
+        <v>259.1857756666666</v>
       </c>
       <c r="N10">
-        <v>0.26410876202681</v>
+        <v>777.557327</v>
       </c>
       <c r="O10">
-        <v>0.0007084664793791137</v>
+        <v>0.668332914526494</v>
       </c>
       <c r="P10">
-        <v>0.0007084664793791137</v>
+        <v>0.6683329145264941</v>
       </c>
       <c r="Q10">
-        <v>48.65274511802611</v>
+        <v>62.40502315984888</v>
       </c>
       <c r="R10">
-        <v>48.65274511802611</v>
+        <v>561.64520843864</v>
       </c>
       <c r="S10">
-        <v>0.000373037583106954</v>
+        <v>0.0004552481145131787</v>
       </c>
       <c r="T10">
-        <v>0.000373037583106954</v>
+        <v>0.0004552481145131788</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>184.214808871382</v>
+        <v>0.2407733333333333</v>
       </c>
       <c r="H11">
-        <v>184.214808871382</v>
+        <v>0.72232</v>
       </c>
       <c r="I11">
-        <v>0.5265423191706641</v>
+        <v>0.0006811696754987993</v>
       </c>
       <c r="J11">
-        <v>0.5265423191706641</v>
+        <v>0.0006811696754987993</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>126.773838160473</v>
+        <v>0.1782366666666667</v>
       </c>
       <c r="N11">
-        <v>126.773838160473</v>
+        <v>0.53471</v>
       </c>
       <c r="O11">
-        <v>0.3400682889491209</v>
+        <v>0.0004595986434919951</v>
       </c>
       <c r="P11">
-        <v>0.3400682889491209</v>
+        <v>0.0004595986434919951</v>
       </c>
       <c r="Q11">
-        <v>23353.61836662305</v>
+        <v>0.04291463635555556</v>
       </c>
       <c r="R11">
-        <v>23353.61836662305</v>
+        <v>0.3862317272</v>
       </c>
       <c r="S11">
-        <v>0.1790603455396697</v>
+        <v>3.130646588471307E-07</v>
       </c>
       <c r="T11">
-        <v>0.1790603455396697</v>
+        <v>3.130646588471307E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>184.214808871382</v>
+        <v>186.2174176666666</v>
       </c>
       <c r="H12">
-        <v>184.214808871382</v>
+        <v>558.652253</v>
       </c>
       <c r="I12">
-        <v>0.5265423191706641</v>
+        <v>0.5268260243281138</v>
       </c>
       <c r="J12">
-        <v>0.5265423191706641</v>
+        <v>0.5268260243281138</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>245.628914213803</v>
+        <v>0.7744373333333333</v>
       </c>
       <c r="N12">
-        <v>245.628914213803</v>
+        <v>2.323312</v>
       </c>
       <c r="O12">
-        <v>0.6588946566986762</v>
+        <v>0.001996953570362765</v>
       </c>
       <c r="P12">
-        <v>0.6588946566986762</v>
+        <v>0.001996953570362765</v>
       </c>
       <c r="Q12">
-        <v>45248.4834851808</v>
+        <v>144.2137203579929</v>
       </c>
       <c r="R12">
-        <v>45248.4834851808</v>
+        <v>1297.923483221936</v>
       </c>
       <c r="S12">
-        <v>0.3469359206272795</v>
+        <v>0.001052047110242048</v>
       </c>
       <c r="T12">
-        <v>0.3469359206272795</v>
+        <v>0.001052047110242048</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>184.214808871382</v>
+        <v>186.2174176666666</v>
       </c>
       <c r="H13">
-        <v>184.214808871382</v>
+        <v>558.652253</v>
       </c>
       <c r="I13">
-        <v>0.5265423191706641</v>
+        <v>0.5268260243281138</v>
       </c>
       <c r="J13">
-        <v>0.5265423191706641</v>
+        <v>0.5268260243281138</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.122494061235655</v>
+        <v>0.2864023333333334</v>
       </c>
       <c r="N13">
-        <v>0.122494061235655</v>
+        <v>0.8592070000000001</v>
       </c>
       <c r="O13">
-        <v>0.0003285878728236385</v>
+        <v>0.0007385131598040558</v>
       </c>
       <c r="P13">
-        <v>0.0003285878728236385</v>
+        <v>0.0007385131598040558</v>
       </c>
       <c r="Q13">
-        <v>22.56522007840555</v>
+        <v>53.33310292704122</v>
       </c>
       <c r="R13">
-        <v>22.56522007840555</v>
+        <v>479.997926343371</v>
       </c>
       <c r="S13">
-        <v>0.0001730154206079139</v>
+        <v>0.0003890679518935637</v>
       </c>
       <c r="T13">
-        <v>0.0001730154206079139</v>
+        <v>0.0003890679518935637</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>164.793554190397</v>
+        <v>186.2174176666666</v>
       </c>
       <c r="H14">
-        <v>164.793554190397</v>
+        <v>558.652253</v>
       </c>
       <c r="I14">
-        <v>0.471030427680606</v>
+        <v>0.5268260243281138</v>
       </c>
       <c r="J14">
-        <v>0.471030427680606</v>
+        <v>0.5268260243281138</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.26410876202681</v>
+        <v>127.3845316666667</v>
       </c>
       <c r="N14">
-        <v>0.26410876202681</v>
+        <v>382.153595</v>
       </c>
       <c r="O14">
-        <v>0.0007084664793791137</v>
+        <v>0.3284720200998472</v>
       </c>
       <c r="P14">
-        <v>0.0007084664793791137</v>
+        <v>0.3284720200998472</v>
       </c>
       <c r="Q14">
-        <v>43.52342158722378</v>
+        <v>23721.21853764439</v>
       </c>
       <c r="R14">
-        <v>43.52342158722378</v>
+        <v>213490.9668387995</v>
       </c>
       <c r="S14">
-        <v>0.0003337092687793172</v>
+        <v>0.1730476084522267</v>
       </c>
       <c r="T14">
-        <v>0.0003337092687793172</v>
+        <v>0.1730476084522267</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>164.793554190397</v>
+        <v>186.2174176666666</v>
       </c>
       <c r="H15">
-        <v>164.793554190397</v>
+        <v>558.652253</v>
       </c>
       <c r="I15">
-        <v>0.471030427680606</v>
+        <v>0.5268260243281138</v>
       </c>
       <c r="J15">
-        <v>0.471030427680606</v>
+        <v>0.5268260243281138</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>126.773838160473</v>
+        <v>259.1857756666666</v>
       </c>
       <c r="N15">
-        <v>126.773838160473</v>
+        <v>777.557327</v>
       </c>
       <c r="O15">
-        <v>0.3400682889491209</v>
+        <v>0.668332914526494</v>
       </c>
       <c r="P15">
-        <v>0.3400682889491209</v>
+        <v>0.6683329145264941</v>
       </c>
       <c r="Q15">
-        <v>20891.51136882253</v>
+        <v>48264.90584057863</v>
       </c>
       <c r="R15">
-        <v>20891.51136882253</v>
+        <v>434384.1525652077</v>
       </c>
       <c r="S15">
-        <v>0.1601825115843163</v>
+        <v>0.3520951722876139</v>
       </c>
       <c r="T15">
-        <v>0.1601825115843163</v>
+        <v>0.3520951722876139</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>164.793554190397</v>
+        <v>186.2174176666666</v>
       </c>
       <c r="H16">
-        <v>164.793554190397</v>
+        <v>558.652253</v>
       </c>
       <c r="I16">
-        <v>0.471030427680606</v>
+        <v>0.5268260243281138</v>
       </c>
       <c r="J16">
-        <v>0.471030427680606</v>
+        <v>0.5268260243281138</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>245.628914213803</v>
+        <v>0.1782366666666667</v>
       </c>
       <c r="N16">
-        <v>245.628914213803</v>
+        <v>0.53471</v>
       </c>
       <c r="O16">
-        <v>0.6588946566986762</v>
+        <v>0.0004595986434919951</v>
       </c>
       <c r="P16">
-        <v>0.6588946566986762</v>
+        <v>0.0004595986434919951</v>
       </c>
       <c r="Q16">
-        <v>40478.06178522072</v>
+        <v>33.19077180018111</v>
       </c>
       <c r="R16">
-        <v>40478.06178522072</v>
+        <v>298.71694620163</v>
       </c>
       <c r="S16">
-        <v>0.3103594319412435</v>
+        <v>0.0002421285261374819</v>
       </c>
       <c r="T16">
-        <v>0.3103594319412435</v>
+        <v>0.0002421285261374819</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>164.793554190397</v>
+        <v>165.847814</v>
       </c>
       <c r="H17">
-        <v>164.793554190397</v>
+        <v>497.543442</v>
       </c>
       <c r="I17">
-        <v>0.471030427680606</v>
+        <v>0.4691985614875619</v>
       </c>
       <c r="J17">
-        <v>0.471030427680606</v>
+        <v>0.4691985614875618</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.122494061235655</v>
+        <v>0.7744373333333333</v>
       </c>
       <c r="N17">
-        <v>0.122494061235655</v>
+        <v>2.323312</v>
       </c>
       <c r="O17">
-        <v>0.0003285878728236385</v>
+        <v>0.001996953570362765</v>
       </c>
       <c r="P17">
-        <v>0.0003285878728236385</v>
+        <v>0.001996953570362765</v>
       </c>
       <c r="Q17">
-        <v>20.18623171823972</v>
+        <v>128.4387388133227</v>
       </c>
       <c r="R17">
-        <v>20.18623171823972</v>
+        <v>1155.948649319904</v>
       </c>
       <c r="S17">
-        <v>0.000154774886266779</v>
+        <v>0.00093696774257166</v>
       </c>
       <c r="T17">
-        <v>0.000154774886266779</v>
+        <v>0.0009369677425716601</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.334332856055907</v>
+        <v>165.847814</v>
       </c>
       <c r="H18">
-        <v>0.334332856055907</v>
+        <v>497.543442</v>
       </c>
       <c r="I18">
-        <v>0.0009556256550771646</v>
+        <v>0.4691985614875619</v>
       </c>
       <c r="J18">
-        <v>0.0009556256550771646</v>
+        <v>0.4691985614875618</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.26410876202681</v>
+        <v>0.2864023333333334</v>
       </c>
       <c r="N18">
-        <v>0.26410876202681</v>
+        <v>0.8592070000000001</v>
       </c>
       <c r="O18">
-        <v>0.0007084664793791137</v>
+        <v>0.0007385131598040558</v>
       </c>
       <c r="P18">
-        <v>0.0007084664793791137</v>
+        <v>0.0007385131598040558</v>
       </c>
       <c r="Q18">
-        <v>0.08830023671781327</v>
+        <v>47.49920090783267</v>
       </c>
       <c r="R18">
-        <v>0.08830023671781327</v>
+        <v>427.492808170494</v>
       </c>
       <c r="S18">
-        <v>6.77028743456878E-07</v>
+        <v>0.0003465093122196969</v>
       </c>
       <c r="T18">
-        <v>6.77028743456878E-07</v>
+        <v>0.0003465093122196969</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.334332856055907</v>
+        <v>165.847814</v>
       </c>
       <c r="H19">
-        <v>0.334332856055907</v>
+        <v>497.543442</v>
       </c>
       <c r="I19">
-        <v>0.0009556256550771646</v>
+        <v>0.4691985614875619</v>
       </c>
       <c r="J19">
-        <v>0.0009556256550771646</v>
+        <v>0.4691985614875618</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>126.773838160473</v>
+        <v>127.3845316666667</v>
       </c>
       <c r="N19">
-        <v>126.773838160473</v>
+        <v>382.153595</v>
       </c>
       <c r="O19">
-        <v>0.3400682889491209</v>
+        <v>0.3284720200998472</v>
       </c>
       <c r="P19">
-        <v>0.3400682889491209</v>
+        <v>0.3284720200998472</v>
       </c>
       <c r="Q19">
-        <v>42.38465938536027</v>
+        <v>21126.44611433044</v>
       </c>
       <c r="R19">
-        <v>42.38465938536027</v>
+        <v>190138.015028974</v>
       </c>
       <c r="S19">
-        <v>0.0003249779813979742</v>
+        <v>0.1541185993197618</v>
       </c>
       <c r="T19">
-        <v>0.0003249779813979742</v>
+        <v>0.1541185993197618</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.334332856055907</v>
+        <v>165.847814</v>
       </c>
       <c r="H20">
-        <v>0.334332856055907</v>
+        <v>497.543442</v>
       </c>
       <c r="I20">
-        <v>0.0009556256550771646</v>
+        <v>0.4691985614875619</v>
       </c>
       <c r="J20">
-        <v>0.0009556256550771646</v>
+        <v>0.4691985614875618</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>245.628914213803</v>
+        <v>259.1857756666666</v>
       </c>
       <c r="N20">
-        <v>245.628914213803</v>
+        <v>777.557327</v>
       </c>
       <c r="O20">
-        <v>0.6588946566986762</v>
+        <v>0.668332914526494</v>
       </c>
       <c r="P20">
-        <v>0.6588946566986762</v>
+        <v>0.6683329145264941</v>
       </c>
       <c r="Q20">
-        <v>82.12181641901213</v>
+        <v>42985.39431421106</v>
       </c>
       <c r="R20">
-        <v>82.12181641901213</v>
+        <v>386868.5488278995</v>
       </c>
       <c r="S20">
-        <v>0.0006296566379345159</v>
+        <v>0.3135808420906206</v>
       </c>
       <c r="T20">
-        <v>0.0006296566379345159</v>
+        <v>0.3135808420906206</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.334332856055907</v>
+        <v>165.847814</v>
       </c>
       <c r="H21">
-        <v>0.334332856055907</v>
+        <v>497.543442</v>
       </c>
       <c r="I21">
-        <v>0.0009556256550771646</v>
+        <v>0.4691985614875619</v>
       </c>
       <c r="J21">
-        <v>0.0009556256550771646</v>
+        <v>0.4691985614875618</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.122494061235655</v>
+        <v>0.1782366666666667</v>
       </c>
       <c r="N21">
-        <v>0.122494061235655</v>
+        <v>0.53471</v>
       </c>
       <c r="O21">
-        <v>0.0003285878728236385</v>
+        <v>0.0004595986434919951</v>
       </c>
       <c r="P21">
-        <v>0.0003285878728236385</v>
+        <v>0.0004595986434919951</v>
       </c>
       <c r="Q21">
-        <v>0.0409537893428037</v>
+        <v>29.56016154131333</v>
       </c>
       <c r="R21">
-        <v>0.0409537893428037</v>
+        <v>266.04145387182</v>
       </c>
       <c r="S21">
-        <v>3.140070012175016E-07</v>
+        <v>0.0002156430223880789</v>
       </c>
       <c r="T21">
-        <v>3.140070012175016E-07</v>
+        <v>0.0002156430223880789</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.377292</v>
+      </c>
+      <c r="H22">
+        <v>1.131876</v>
+      </c>
+      <c r="I22">
+        <v>0.001067393409603609</v>
+      </c>
+      <c r="J22">
+        <v>0.001067393409603609</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.7744373333333333</v>
+      </c>
+      <c r="N22">
+        <v>2.323312</v>
+      </c>
+      <c r="O22">
+        <v>0.001996953570362765</v>
+      </c>
+      <c r="P22">
+        <v>0.001996953570362765</v>
+      </c>
+      <c r="Q22">
+        <v>0.2921890103679999</v>
+      </c>
+      <c r="R22">
+        <v>2.629701093312</v>
+      </c>
+      <c r="S22">
+        <v>2.131535080289612E-06</v>
+      </c>
+      <c r="T22">
+        <v>2.131535080289613E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.377292</v>
+      </c>
+      <c r="H23">
+        <v>1.131876</v>
+      </c>
+      <c r="I23">
+        <v>0.001067393409603609</v>
+      </c>
+      <c r="J23">
+        <v>0.001067393409603609</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.2864023333333334</v>
+      </c>
+      <c r="N23">
+        <v>0.8592070000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.0007385131598040558</v>
+      </c>
+      <c r="P23">
+        <v>0.0007385131598040558</v>
+      </c>
+      <c r="Q23">
+        <v>0.108057309148</v>
+      </c>
+      <c r="R23">
+        <v>0.972515782332</v>
+      </c>
+      <c r="S23">
+        <v>7.882840796803862E-07</v>
+      </c>
+      <c r="T23">
+        <v>7.882840796803862E-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.377292</v>
+      </c>
+      <c r="H24">
+        <v>1.131876</v>
+      </c>
+      <c r="I24">
+        <v>0.001067393409603609</v>
+      </c>
+      <c r="J24">
+        <v>0.001067393409603609</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>127.3845316666667</v>
+      </c>
+      <c r="N24">
+        <v>382.153595</v>
+      </c>
+      <c r="O24">
+        <v>0.3284720200998472</v>
+      </c>
+      <c r="P24">
+        <v>0.3284720200998472</v>
+      </c>
+      <c r="Q24">
+        <v>48.06116472157999</v>
+      </c>
+      <c r="R24">
+        <v>432.55048249422</v>
+      </c>
+      <c r="S24">
+        <v>0.0003506088694937611</v>
+      </c>
+      <c r="T24">
+        <v>0.0003506088694937611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.377292</v>
+      </c>
+      <c r="H25">
+        <v>1.131876</v>
+      </c>
+      <c r="I25">
+        <v>0.001067393409603609</v>
+      </c>
+      <c r="J25">
+        <v>0.001067393409603609</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>259.1857756666666</v>
+      </c>
+      <c r="N25">
+        <v>777.557327</v>
+      </c>
+      <c r="O25">
+        <v>0.668332914526494</v>
+      </c>
+      <c r="P25">
+        <v>0.6683329145264941</v>
+      </c>
+      <c r="Q25">
+        <v>97.78871967282798</v>
+      </c>
+      <c r="R25">
+        <v>880.0984770554519</v>
+      </c>
+      <c r="S25">
+        <v>0.0007133741483867519</v>
+      </c>
+      <c r="T25">
+        <v>0.000713374148386752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.377292</v>
+      </c>
+      <c r="H26">
+        <v>1.131876</v>
+      </c>
+      <c r="I26">
+        <v>0.001067393409603609</v>
+      </c>
+      <c r="J26">
+        <v>0.001067393409603609</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1782366666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.53471</v>
+      </c>
+      <c r="O26">
+        <v>0.0004595986434919951</v>
+      </c>
+      <c r="P26">
+        <v>0.0004595986434919951</v>
+      </c>
+      <c r="Q26">
+        <v>0.06724726843999999</v>
+      </c>
+      <c r="R26">
+        <v>0.60522541596</v>
+      </c>
+      <c r="S26">
+        <v>4.905725631261142E-07</v>
+      </c>
+      <c r="T26">
+        <v>4.905725631261142E-07</v>
       </c>
     </row>
   </sheetData>
